--- a/Minutes/VupiterGantt.xlsx
+++ b/Minutes/VupiterGantt.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC1EBF6-A469-4B4E-81D3-330897F47683}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62AD241-3FC8-44BA-9C14-5E77B5830690}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -30,22 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
-  <si>
-    <t>Task 3</t>
-  </si>
-  <si>
-    <t>Task 4</t>
-  </si>
-  <si>
-    <t>Task 5</t>
-  </si>
-  <si>
-    <t>Task 1</t>
-  </si>
-  <si>
-    <t>Task 2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -123,9 +108,6 @@
   </si>
   <si>
     <t>Guide for Screen Readers</t>
-  </si>
-  <si>
-    <t>date</t>
   </si>
   <si>
     <t>Sample phase title block</t>
@@ -255,19 +237,40 @@
     <t>Facilities</t>
   </si>
   <si>
-    <t>Diposition</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>Build Device</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vupiter </t>
   </si>
   <si>
     <t>Project Leader - Alex</t>
+  </si>
+  <si>
+    <t>User Interface</t>
+  </si>
+  <si>
+    <t>Project Proposal 1</t>
+  </si>
+  <si>
+    <t>Project Proposal 2</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Capstone 2 (Build)</t>
+  </si>
+  <si>
+    <t>Identify source, order parts</t>
+  </si>
+  <si>
+    <t>Build Vupiter</t>
+  </si>
+  <si>
+    <t>Test/Troubleshoot</t>
+  </si>
+  <si>
+    <t>Fix Bugs and Finalize</t>
+  </si>
+  <si>
+    <t>Project Submission</t>
   </si>
 </sst>
 </file>
@@ -281,7 +284,7 @@
     <numFmt numFmtId="166" formatCode="mmm\ d\,\ yyyy"/>
     <numFmt numFmtId="167" formatCode="d"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,6 +437,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -896,6 +905,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="12">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -907,16 +926,6 @@
     </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1484,11 +1493,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL34"/>
+  <dimension ref="A1:BL35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1507,125 +1516,125 @@
   <sheetData>
     <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="55" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="84"/>
-      <c r="E1" s="82">
+        <v>56</v>
+      </c>
+      <c r="C1" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="81"/>
+      <c r="E1" s="86">
         <v>44095</v>
       </c>
-      <c r="F1" s="82"/>
+      <c r="F1" s="86"/>
     </row>
     <row r="2" spans="1:64" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="83" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="84"/>
+        <v>29</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="81"/>
       <c r="E2" s="5">
         <v>1</v>
       </c>
-      <c r="I2" s="79">
+      <c r="I2" s="83">
         <f>I3</f>
         <v>44095</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="79">
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="83">
         <f>P3</f>
         <v>44102</v>
       </c>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="79">
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="83">
         <f>W3</f>
         <v>44109</v>
       </c>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80"/>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="81"/>
-      <c r="AD2" s="79">
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="83">
         <f>AD3</f>
         <v>44116</v>
       </c>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80"/>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="81"/>
-      <c r="AK2" s="79">
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="84"/>
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="84"/>
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="83">
         <f>AK3</f>
         <v>44123</v>
       </c>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80"/>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="81"/>
-      <c r="AR2" s="79">
+      <c r="AL2" s="84"/>
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="84"/>
+      <c r="AO2" s="84"/>
+      <c r="AP2" s="84"/>
+      <c r="AQ2" s="85"/>
+      <c r="AR2" s="83">
         <f>AR3</f>
         <v>44130</v>
       </c>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
-      <c r="AW2" s="80"/>
-      <c r="AX2" s="81"/>
-      <c r="AY2" s="79">
+      <c r="AS2" s="84"/>
+      <c r="AT2" s="84"/>
+      <c r="AU2" s="84"/>
+      <c r="AV2" s="84"/>
+      <c r="AW2" s="84"/>
+      <c r="AX2" s="85"/>
+      <c r="AY2" s="83">
         <f>AY3</f>
         <v>44137</v>
       </c>
-      <c r="AZ2" s="80"/>
-      <c r="BA2" s="80"/>
-      <c r="BB2" s="80"/>
-      <c r="BC2" s="80"/>
-      <c r="BD2" s="80"/>
-      <c r="BE2" s="81"/>
-      <c r="BF2" s="79">
+      <c r="AZ2" s="84"/>
+      <c r="BA2" s="84"/>
+      <c r="BB2" s="84"/>
+      <c r="BC2" s="84"/>
+      <c r="BD2" s="84"/>
+      <c r="BE2" s="85"/>
+      <c r="BF2" s="83">
         <f>BF3</f>
         <v>44144</v>
       </c>
-      <c r="BG2" s="80"/>
-      <c r="BH2" s="80"/>
-      <c r="BI2" s="80"/>
-      <c r="BJ2" s="80"/>
-      <c r="BK2" s="80"/>
-      <c r="BL2" s="81"/>
+      <c r="BG2" s="84"/>
+      <c r="BH2" s="84"/>
+      <c r="BI2" s="84"/>
+      <c r="BJ2" s="84"/>
+      <c r="BK2" s="84"/>
+      <c r="BL2" s="85"/>
     </row>
     <row r="3" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
+        <v>30</v>
+      </c>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
       <c r="I3" s="9">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44095</v>
@@ -1853,26 +1862,26 @@
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="56" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I4" s="11" t="str">
         <f t="shared" ref="I4" si="3">LEFT(TEXT(I3,"ddd"),1)</f>
@@ -2101,7 +2110,7 @@
     </row>
     <row r="5" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="55" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C5" s="58"/>
       <c r="E5"/>
@@ -2168,10 +2177,10 @@
     </row>
     <row r="6" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="56" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C6" s="65"/>
       <c r="D6" s="17"/>
@@ -2179,7 +2188,7 @@
       <c r="F6" s="19"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15" t="str">
-        <f t="shared" ref="H6:H31" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H6:H32" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I6" s="42"/>
@@ -2241,16 +2250,16 @@
     </row>
     <row r="7" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="56" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B7" s="74" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D7" s="20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E7" s="60">
         <f>Project_Start</f>
@@ -2324,16 +2333,16 @@
     </row>
     <row r="8" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="56" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B8" s="74" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C8" s="66" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D8" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="60">
         <f>E7+7</f>
@@ -2408,26 +2417,26 @@
     <row r="9" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="55"/>
       <c r="B9" s="74" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C9" s="66" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D9" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="60">
         <f>E8</f>
         <v>44102</v>
       </c>
       <c r="F9" s="60">
-        <f t="shared" ref="F9:F10" si="7">E9+13</f>
-        <v>44115</v>
+        <f t="shared" ref="F9:F10" si="7">E9+27</f>
+        <v>44129</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I9" s="42"/>
       <c r="J9" s="42"/>
@@ -2489,13 +2498,13 @@
     <row r="10" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="55"/>
       <c r="B10" s="74" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D10" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="60">
         <f>E9</f>
@@ -2503,12 +2512,12 @@
       </c>
       <c r="F10" s="60">
         <f t="shared" si="7"/>
-        <v>44115</v>
+        <v>44129</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I10" s="42"/>
       <c r="J10" s="42"/>
@@ -2570,26 +2579,26 @@
     <row r="11" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="55"/>
       <c r="B11" s="74" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C11" s="66" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D11" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="60">
         <f>E10</f>
         <v>44102</v>
       </c>
       <c r="F11" s="60">
-        <f>E11+13</f>
-        <v>44115</v>
+        <f>E11+27</f>
+        <v>44129</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="15">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I11" s="42"/>
       <c r="J11" s="42"/>
@@ -2650,10 +2659,10 @@
     </row>
     <row r="12" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="56" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C12" s="67"/>
       <c r="D12" s="22"/>
@@ -2724,25 +2733,25 @@
     <row r="13" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="56"/>
       <c r="B13" s="75" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C13" s="68" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D13" s="25">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E13" s="61">
         <v>44116</v>
       </c>
       <c r="F13" s="61">
-        <f>E13+6</f>
-        <v>44122</v>
+        <f>E13+20</f>
+        <v>44136</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I13" s="42"/>
       <c r="J13" s="42"/>
@@ -2804,26 +2813,26 @@
     <row r="14" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="55"/>
       <c r="B14" s="75" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D14" s="25">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E14" s="61">
         <f>E13</f>
         <v>44116</v>
       </c>
       <c r="F14" s="61">
-        <f t="shared" ref="F14:F16" si="8">E14+6</f>
-        <v>44122</v>
+        <f t="shared" ref="F14:F16" si="8">E14+20</f>
+        <v>44136</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="15">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I14" s="42"/>
       <c r="J14" s="42"/>
@@ -2885,13 +2894,13 @@
     <row r="15" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="55"/>
       <c r="B15" s="75" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C15" s="68" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D15" s="25">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E15" s="61">
         <f>E14</f>
@@ -2899,12 +2908,12 @@
       </c>
       <c r="F15" s="61">
         <f t="shared" si="8"/>
-        <v>44122</v>
+        <v>44136</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I15" s="42"/>
       <c r="J15" s="42"/>
@@ -2966,13 +2975,13 @@
     <row r="16" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="55"/>
       <c r="B16" s="75" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C16" s="68" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D16" s="25">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E16" s="61">
         <f>E15</f>
@@ -2980,7 +2989,7 @@
       </c>
       <c r="F16" s="61">
         <f t="shared" si="8"/>
-        <v>44122</v>
+        <v>44136</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -3044,26 +3053,26 @@
     <row r="17" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="55"/>
       <c r="B17" s="75" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C17" s="68" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D17" s="25">
         <v>0</v>
       </c>
       <c r="E17" s="61">
-        <f>F16+1</f>
+        <f>E16+7</f>
         <v>44123</v>
       </c>
       <c r="F17" s="61">
-        <f>E17+6</f>
-        <v>44129</v>
+        <f>E17+13</f>
+        <v>44136</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="15">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I17" s="42"/>
       <c r="J17" s="42"/>
@@ -3125,26 +3134,26 @@
     <row r="18" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="55"/>
       <c r="B18" s="75" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C18" s="68" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D18" s="25">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E18" s="61">
         <f>E17</f>
         <v>44123</v>
       </c>
       <c r="F18" s="61">
-        <f>E18+6</f>
-        <v>44129</v>
+        <f>E18+13</f>
+        <v>44136</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="15">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I18" s="42"/>
       <c r="J18" s="42"/>
@@ -3205,10 +3214,10 @@
     </row>
     <row r="19" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="55" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C19" s="69"/>
       <c r="D19" s="27"/>
@@ -3279,10 +3288,10 @@
     <row r="20" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="55"/>
       <c r="B20" s="76" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C20" s="70" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D20" s="30">
         <v>0</v>
@@ -3360,20 +3369,20 @@
     <row r="21" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="55"/>
       <c r="B21" s="76" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C21" s="70" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D21" s="30">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E21" s="60">
         <f>E20</f>
         <v>44123</v>
       </c>
       <c r="F21" s="62">
-        <f t="shared" ref="F21:F22" si="9">E21+6</f>
+        <f t="shared" ref="F21:F23" si="9">E21+6</f>
         <v>44129</v>
       </c>
       <c r="G21" s="15"/>
@@ -3441,10 +3450,10 @@
     <row r="22" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="55"/>
       <c r="B22" s="76" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C22" s="70" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D22" s="30">
         <v>0</v>
@@ -3522,27 +3531,24 @@
     <row r="23" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="55"/>
       <c r="B23" s="76" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C23" s="70" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D23" s="30">
         <v>0</v>
       </c>
       <c r="E23" s="62">
-        <f>F22+1</f>
-        <v>44130</v>
+        <f>E21</f>
+        <v>44123</v>
       </c>
       <c r="F23" s="62">
-        <f>E23+6</f>
+        <f>E23+13</f>
         <v>44136</v>
       </c>
       <c r="G23" s="15"/>
-      <c r="H23" s="15">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
+      <c r="H23" s="15"/>
       <c r="I23" s="42"/>
       <c r="J23" s="42"/>
       <c r="K23" s="42"/>
@@ -3601,20 +3607,28 @@
       <c r="BL23" s="42"/>
     </row>
     <row r="24" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="71"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="34"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="30">
+        <v>0</v>
+      </c>
+      <c r="E24" s="62">
+        <f>F23+1</f>
+        <v>44137</v>
+      </c>
+      <c r="F24" s="62">
+        <f>E24+17</f>
+        <v>44154</v>
+      </c>
       <c r="G24" s="15"/>
-      <c r="H24" s="15" t="str">
+      <c r="H24" s="15">
         <f t="shared" si="6"/>
-        <v/>
+        <v>18</v>
       </c>
       <c r="I24" s="42"/>
       <c r="J24" s="42"/>
@@ -3674,22 +3688,20 @@
       <c r="BL24" s="42"/>
     </row>
     <row r="25" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="55"/>
-      <c r="B25" s="77" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="72"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="63" t="s">
-        <v>29</v>
-      </c>
+      <c r="A25" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="71"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="34"/>
       <c r="G25" s="15"/>
-      <c r="H25" s="15" t="e">
+      <c r="H25" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I25" s="42"/>
       <c r="J25" s="42"/>
@@ -3751,20 +3763,23 @@
     <row r="26" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="55"/>
       <c r="B26" s="77" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="72"/>
+        <v>63</v>
+      </c>
+      <c r="C26" s="72" t="s">
+        <v>61</v>
+      </c>
       <c r="D26" s="35"/>
-      <c r="E26" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="63" t="s">
-        <v>29</v>
+      <c r="E26" s="63">
+        <v>44207</v>
+      </c>
+      <c r="F26" s="63">
+        <f>E26+13</f>
+        <v>44220</v>
       </c>
       <c r="G26" s="15"/>
-      <c r="H26" s="15" t="e">
+      <c r="H26" s="15">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>14</v>
       </c>
       <c r="I26" s="42"/>
       <c r="J26" s="42"/>
@@ -3826,20 +3841,24 @@
     <row r="27" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="55"/>
       <c r="B27" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="72"/>
+        <v>64</v>
+      </c>
+      <c r="C27" s="72" t="s">
+        <v>61</v>
+      </c>
       <c r="D27" s="35"/>
-      <c r="E27" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="63" t="s">
-        <v>29</v>
+      <c r="E27" s="63">
+        <f>F26+8</f>
+        <v>44228</v>
+      </c>
+      <c r="F27" s="63">
+        <f>E27+34</f>
+        <v>44262</v>
       </c>
       <c r="G27" s="15"/>
-      <c r="H27" s="15" t="e">
+      <c r="H27" s="15">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>35</v>
       </c>
       <c r="I27" s="42"/>
       <c r="J27" s="42"/>
@@ -3901,20 +3920,24 @@
     <row r="28" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="55"/>
       <c r="B28" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="72"/>
+        <v>65</v>
+      </c>
+      <c r="C28" s="72" t="s">
+        <v>61</v>
+      </c>
       <c r="D28" s="35"/>
-      <c r="E28" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="63" t="s">
-        <v>29</v>
+      <c r="E28" s="63">
+        <f>F27+8</f>
+        <v>44270</v>
+      </c>
+      <c r="F28" s="63">
+        <f t="shared" ref="F28:F29" si="10">E28+13</f>
+        <v>44283</v>
       </c>
       <c r="G28" s="15"/>
-      <c r="H28" s="15" t="e">
+      <c r="H28" s="15">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>14</v>
       </c>
       <c r="I28" s="42"/>
       <c r="J28" s="42"/>
@@ -3976,20 +3999,24 @@
     <row r="29" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="55"/>
       <c r="B29" s="77" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="72"/>
+        <v>66</v>
+      </c>
+      <c r="C29" s="72" t="s">
+        <v>61</v>
+      </c>
       <c r="D29" s="35"/>
-      <c r="E29" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="63" t="s">
-        <v>29</v>
+      <c r="E29" s="63">
+        <f>F28+1</f>
+        <v>44284</v>
+      </c>
+      <c r="F29" s="63">
+        <f>E29+20</f>
+        <v>44304</v>
       </c>
       <c r="G29" s="15"/>
-      <c r="H29" s="15" t="e">
+      <c r="H29" s="15">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>21</v>
       </c>
       <c r="I29" s="42"/>
       <c r="J29" s="42"/>
@@ -4049,18 +4076,26 @@
       <c r="BL29" s="42"/>
     </row>
     <row r="30" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="78"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="35"/>
+      <c r="E30" s="63">
+        <f>F29+1</f>
+        <v>44305</v>
+      </c>
+      <c r="F30" s="63">
+        <f>E30</f>
+        <v>44305</v>
+      </c>
       <c r="G30" s="15"/>
-      <c r="H30" s="15" t="str">
+      <c r="H30" s="15">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I30" s="42"/>
       <c r="J30" s="42"/>
@@ -4120,95 +4155,161 @@
       <c r="BL30" s="42"/>
     </row>
     <row r="31" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41" t="str">
+      <c r="A31" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="78"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="44"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="44"/>
-      <c r="S31" s="44"/>
-      <c r="T31" s="44"/>
-      <c r="U31" s="44"/>
-      <c r="V31" s="44"/>
-      <c r="W31" s="44"/>
-      <c r="X31" s="44"/>
-      <c r="Y31" s="44"/>
-      <c r="Z31" s="44"/>
-      <c r="AA31" s="44"/>
-      <c r="AB31" s="44"/>
-      <c r="AC31" s="44"/>
-      <c r="AD31" s="44"/>
-      <c r="AE31" s="44"/>
-      <c r="AF31" s="44"/>
-      <c r="AG31" s="44"/>
-      <c r="AH31" s="44"/>
-      <c r="AI31" s="44"/>
-      <c r="AJ31" s="44"/>
-      <c r="AK31" s="44"/>
-      <c r="AL31" s="44"/>
-      <c r="AM31" s="44"/>
-      <c r="AN31" s="44"/>
-      <c r="AO31" s="44"/>
-      <c r="AP31" s="44"/>
-      <c r="AQ31" s="44"/>
-      <c r="AR31" s="44"/>
-      <c r="AS31" s="44"/>
-      <c r="AT31" s="44"/>
-      <c r="AU31" s="44"/>
-      <c r="AV31" s="44"/>
-      <c r="AW31" s="44"/>
-      <c r="AX31" s="44"/>
-      <c r="AY31" s="44"/>
-      <c r="AZ31" s="44"/>
-      <c r="BA31" s="44"/>
-      <c r="BB31" s="44"/>
-      <c r="BC31" s="44"/>
-      <c r="BD31" s="44"/>
-      <c r="BE31" s="44"/>
-      <c r="BF31" s="44"/>
-      <c r="BG31" s="44"/>
-      <c r="BH31" s="44"/>
-      <c r="BI31" s="44"/>
-      <c r="BJ31" s="44"/>
-      <c r="BK31" s="44"/>
-      <c r="BL31" s="44"/>
-    </row>
-    <row r="32" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="12"/>
-      <c r="F33" s="57"/>
-    </row>
-    <row r="34" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="13"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="42"/>
+      <c r="S31" s="42"/>
+      <c r="T31" s="42"/>
+      <c r="U31" s="42"/>
+      <c r="V31" s="42"/>
+      <c r="W31" s="42"/>
+      <c r="X31" s="42"/>
+      <c r="Y31" s="42"/>
+      <c r="Z31" s="42"/>
+      <c r="AA31" s="42"/>
+      <c r="AB31" s="42"/>
+      <c r="AC31" s="42"/>
+      <c r="AD31" s="42"/>
+      <c r="AE31" s="42"/>
+      <c r="AF31" s="42"/>
+      <c r="AG31" s="42"/>
+      <c r="AH31" s="42"/>
+      <c r="AI31" s="42"/>
+      <c r="AJ31" s="42"/>
+      <c r="AK31" s="42"/>
+      <c r="AL31" s="42"/>
+      <c r="AM31" s="42"/>
+      <c r="AN31" s="42"/>
+      <c r="AO31" s="42"/>
+      <c r="AP31" s="42"/>
+      <c r="AQ31" s="42"/>
+      <c r="AR31" s="42"/>
+      <c r="AS31" s="42"/>
+      <c r="AT31" s="42"/>
+      <c r="AU31" s="42"/>
+      <c r="AV31" s="42"/>
+      <c r="AW31" s="42"/>
+      <c r="AX31" s="42"/>
+      <c r="AY31" s="42"/>
+      <c r="AZ31" s="42"/>
+      <c r="BA31" s="42"/>
+      <c r="BB31" s="42"/>
+      <c r="BC31" s="42"/>
+      <c r="BD31" s="42"/>
+      <c r="BE31" s="42"/>
+      <c r="BF31" s="42"/>
+      <c r="BG31" s="42"/>
+      <c r="BH31" s="42"/>
+      <c r="BI31" s="42"/>
+      <c r="BJ31" s="42"/>
+      <c r="BK31" s="42"/>
+      <c r="BL31" s="42"/>
+    </row>
+    <row r="32" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="37"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="44"/>
+      <c r="V32" s="44"/>
+      <c r="W32" s="44"/>
+      <c r="X32" s="44"/>
+      <c r="Y32" s="44"/>
+      <c r="Z32" s="44"/>
+      <c r="AA32" s="44"/>
+      <c r="AB32" s="44"/>
+      <c r="AC32" s="44"/>
+      <c r="AD32" s="44"/>
+      <c r="AE32" s="44"/>
+      <c r="AF32" s="44"/>
+      <c r="AG32" s="44"/>
+      <c r="AH32" s="44"/>
+      <c r="AI32" s="44"/>
+      <c r="AJ32" s="44"/>
+      <c r="AK32" s="44"/>
+      <c r="AL32" s="44"/>
+      <c r="AM32" s="44"/>
+      <c r="AN32" s="44"/>
+      <c r="AO32" s="44"/>
+      <c r="AP32" s="44"/>
+      <c r="AQ32" s="44"/>
+      <c r="AR32" s="44"/>
+      <c r="AS32" s="44"/>
+      <c r="AT32" s="44"/>
+      <c r="AU32" s="44"/>
+      <c r="AV32" s="44"/>
+      <c r="AW32" s="44"/>
+      <c r="AX32" s="44"/>
+      <c r="AY32" s="44"/>
+      <c r="AZ32" s="44"/>
+      <c r="BA32" s="44"/>
+      <c r="BB32" s="44"/>
+      <c r="BC32" s="44"/>
+      <c r="BD32" s="44"/>
+      <c r="BE32" s="44"/>
+      <c r="BF32" s="44"/>
+      <c r="BG32" s="44"/>
+      <c r="BH32" s="44"/>
+      <c r="BI32" s="44"/>
+      <c r="BJ32" s="44"/>
+      <c r="BK32" s="44"/>
+      <c r="BL32" s="44"/>
+    </row>
+    <row r="33" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="12"/>
+      <c r="F34" s="57"/>
+    </row>
+    <row r="35" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="AK2:AQ2"/>
-    <mergeCell ref="AR2:AX2"/>
     <mergeCell ref="AY2:BE2"/>
     <mergeCell ref="BF2:BL2"/>
     <mergeCell ref="E1:F1"/>
@@ -4216,8 +4317,14 @@
     <mergeCell ref="P2:V2"/>
     <mergeCell ref="W2:AC2"/>
     <mergeCell ref="AD2:AJ2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="AK2:AQ2"/>
+    <mergeCell ref="AR2:AX2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D5:D31">
+  <phoneticPr fontId="22" type="noConversion"/>
+  <conditionalFormatting sqref="D5:D32">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4231,12 +4338,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:BL31">
+  <conditionalFormatting sqref="I3:BL32">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=I$3,TODAY()&lt;J$3)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL31">
+  <conditionalFormatting sqref="I5:BL32">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(task_start&lt;=I$3,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$3)</formula>
     </cfRule>
@@ -4271,7 +4378,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D5:D31</xm:sqref>
+          <xm:sqref>D5:D32</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4294,79 +4401,79 @@
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:2" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B2" s="46"/>
     </row>
     <row r="3" spans="1:2" s="51" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B3" s="52"/>
     </row>
     <row r="4" spans="1:2" s="48" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="49" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="50" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="49" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="45" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="54" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="48" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="49" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="50" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="45" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="48" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A11" s="49" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="50" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="45" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="48" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A14" s="49" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="50" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A16" s="50" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
